--- a/_reference/Brit OOBs.xlsx
+++ b/_reference/Brit OOBs.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\Python\OOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arm Rgt" sheetId="1" r:id="rId1"/>
-    <sheet name="Mech Btn" sheetId="10" r:id="rId2"/>
+    <sheet name="Mech Btn" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>Regimental HQ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>TOTAL</t>
   </si>
@@ -40,61 +36,13 @@
     <t>Armoured Regiment</t>
   </si>
   <si>
-    <t>LAD REME</t>
-  </si>
-  <si>
-    <t>4x Squadron</t>
-  </si>
-  <si>
-    <t>Sultan</t>
-  </si>
-  <si>
-    <t>Spartan</t>
-  </si>
-  <si>
     <t>Scimitar</t>
   </si>
   <si>
     <t>FV432</t>
   </si>
   <si>
-    <t>FV434</t>
-  </si>
-  <si>
-    <t>ARV</t>
-  </si>
-  <si>
-    <t>4-ton FFR</t>
-  </si>
-  <si>
-    <t>Recce Troop</t>
-  </si>
-  <si>
-    <t>Mechanized Btn</t>
-  </si>
-  <si>
-    <t>Bn HQ</t>
-  </si>
-  <si>
-    <t>3x Company</t>
-  </si>
-  <si>
-    <t>FS Company</t>
-  </si>
-  <si>
     <t>Ferret</t>
-  </si>
-  <si>
-    <t>FV432/81mm</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Spartan MCT</t>
-  </si>
-  <si>
-    <t>Recce Plt</t>
   </si>
   <si>
     <t>FN FAL</t>
@@ -103,13 +51,58 @@
     <t>FN MAG</t>
   </si>
   <si>
-    <t>2" mortar</t>
-  </si>
-  <si>
     <t>Carl Gustav</t>
   </si>
   <si>
-    <t>MBT Chieftain</t>
+    <t>Personnel ea</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>Chieftain MBT</t>
+  </si>
+  <si>
+    <t>HQ co</t>
+  </si>
+  <si>
+    <t>Armoured co</t>
+  </si>
+  <si>
+    <t>AT co</t>
+  </si>
+  <si>
+    <t>Recce plt</t>
+  </si>
+  <si>
+    <t>Sultan CV</t>
+  </si>
+  <si>
+    <t>FV-438 Swingfire</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Mech Inf Btn</t>
+  </si>
+  <si>
+    <t>Support Co</t>
+  </si>
+  <si>
+    <t>Mech inf co</t>
+  </si>
+  <si>
+    <t>81mm mortar SP</t>
+  </si>
+  <si>
+    <t>51mm mortar</t>
+  </si>
+  <si>
+    <t>LSW</t>
   </si>
 </sst>
 </file>
@@ -120,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +130,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,16 +193,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60"/>
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -485,92 +494,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="15" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="13">
+        <v>583</v>
+      </c>
+      <c r="C2" s="8">
+        <f>SUM(D2:O2)</f>
+        <v>583</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>262</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="D2:L2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>59</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9">
-        <f t="shared" ref="B2:B10" si="0">SUM(C2:O2)</f>
-        <v>558</v>
-      </c>
-      <c r="C2" s="3">
-        <v>558</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <f>12*4</f>
-        <v>48</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C16" si="1">SUM(D3:O3)</f>
+        <v>57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <f>4*3+2</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:H3" si="2">4*3+2</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -579,310 +634,279 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(D6:O6)</f>
+        <v>9</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>8</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6">
+        <v>9</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7">
+        <v>8</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="D8" s="3">
+        <v>103</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="3">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <f>8*2</f>
+        <v>16</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D10" s="3">
+        <v>84</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="13"/>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="13"/>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="13"/>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="13"/>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B17"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B18"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -897,8 +921,8 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -913,8 +937,8 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -929,8 +953,8 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -945,8 +969,8 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -961,8 +985,8 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -977,8 +1001,8 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -993,8 +1017,8 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1009,8 +1033,8 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1025,8 +1049,8 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1041,8 +1065,8 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="8"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1057,8 +1081,8 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1073,9 +1097,9 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1090,9 +1114,9 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1107,8 +1131,8 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1123,11 +1147,11 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="8"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1142,8 +1166,8 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="8"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1158,8 +1182,8 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="8"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1174,8 +1198,8 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="8"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1190,8 +1214,8 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="8"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1206,8 +1230,8 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="8"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1222,8 +1246,8 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="8"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1238,8 +1262,8 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="8"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1254,8 +1278,8 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1270,8 +1294,8 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1286,8 +1310,8 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="8"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1302,8 +1326,8 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49" s="8"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1318,8 +1342,8 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50" s="8"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1334,8 +1358,8 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51" s="8"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1350,8 +1374,8 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="8"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1366,8 +1390,8 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="8"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1382,8 +1406,8 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="8"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1398,8 +1422,8 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="8"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1414,8 +1438,8 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="8"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1430,8 +1454,8 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="8"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1446,8 +1470,8 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="8"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1462,8 +1486,8 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="8"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1478,8 +1502,8 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="8"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1494,8 +1518,8 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="8"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1510,8 +1534,8 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B62" s="8"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1526,8 +1550,8 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="8"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1542,8 +1566,8 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="8"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1558,8 +1582,8 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="8"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1574,8 +1598,8 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="8"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1590,9 +1614,9 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -1607,9 +1631,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -1624,8 +1648,8 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="8"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -1640,8 +1664,8 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B70" s="8"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1656,8 +1680,8 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="8"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1672,8 +1696,8 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="8"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1688,8 +1712,8 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="8"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -1704,8 +1728,8 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B74" s="8"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -1720,8 +1744,8 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="8"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -1736,8 +1760,8 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="8"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -1752,8 +1776,8 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="8"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -1768,8 +1792,8 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="8"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -1784,8 +1808,8 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="8"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -1800,8 +1824,8 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="8"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -1816,8 +1840,8 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B81" s="8"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -1832,8 +1856,8 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="8"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -1848,8 +1872,8 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B83" s="8"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -1864,8 +1888,8 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B84" s="8"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -1880,8 +1904,8 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B85" s="8"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -1896,8 +1920,8 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B86" s="8"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -1912,8 +1936,8 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B87" s="8"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -1928,8 +1952,8 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B88" s="8"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -1944,8 +1968,8 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="8"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -1960,8 +1984,8 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="8"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -1976,8 +2000,8 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="8"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -1992,8 +2016,8 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="8"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2008,8 +2032,8 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="8"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2024,8 +2048,8 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="8"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2040,8 +2064,8 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="8"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2056,8 +2080,8 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="8"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2072,8 +2096,8 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B97" s="8"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2088,8 +2112,8 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B98" s="8"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2104,8 +2128,8 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B99" s="8"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2128,227 +2152,1695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="13">
+        <v>680</v>
+      </c>
+      <c r="C2" s="8">
+        <f>SUM(D2:O2)</f>
+        <v>680</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>128</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:L2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>168</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C16" si="1">SUM(D3:O3)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14">
+        <f>6+18</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="14">
+        <f>3+3*4</f>
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:H4" si="2">3+3*4</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(D6:O6)</f>
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
-        <f t="shared" ref="B2:B13" si="0">SUM(C2:O2)</f>
-        <v>650</v>
-      </c>
-      <c r="C2" s="3">
-        <v>650</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="14">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
+        <f>12*3</f>
+        <v>36</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8:H8" si="3">12*3</f>
+        <v>36</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <f>1+3*3</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" ref="G9:H9" si="4">1+3*3</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10">
+        <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="B3" s="9">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <f>3*(2+4*3)</f>
-        <v>42</v>
-      </c>
-      <c r="F3" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <f>E3*6</f>
-        <v>252</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" ref="G10:H10" si="5">3*3</f>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>18</v>
+      </c>
+      <c r="G12" s="14">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <f>3*6</f>
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D13" s="3">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="13"/>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="13"/>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B17"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B18"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="8"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="8"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="8"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="8"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="8"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="8"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="8"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="8"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="8"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49" s="8"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50" s="8"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51" s="8"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="8"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="8"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="8"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="8"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="8"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="8"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="8"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="8"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="8"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="8"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B62" s="8"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="8"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="8"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="8"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="8"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="4"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="8"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B70" s="8"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="8"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="8"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="8"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B74" s="8"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="8"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="8"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="8"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="8"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="8"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="8"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B81" s="8"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="8"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B83" s="8"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B84" s="8"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B85" s="8"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B86" s="8"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B87" s="8"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B88" s="8"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="8"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="8"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="8"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="8"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="8"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="8"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="8"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="8"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B97" s="8"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B98" s="8"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B99" s="8"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_reference/Brit OOBs.xlsx
+++ b/_reference/Brit OOBs.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Arm Rgt" sheetId="1" r:id="rId1"/>
     <sheet name="Mech Btn" sheetId="12" r:id="rId2"/>
+    <sheet name="Airmobile btn" sheetId="14" r:id="rId3"/>
+    <sheet name="Regiments" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>TOTAL</t>
   </si>
@@ -96,13 +98,94 @@
     <t>Mech inf co</t>
   </si>
   <si>
-    <t>81mm mortar SP</t>
-  </si>
-  <si>
     <t>51mm mortar</t>
   </si>
   <si>
     <t>LSW</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>FV432 L16A1</t>
+  </si>
+  <si>
+    <t>Mech btn</t>
+  </si>
+  <si>
+    <t>Brigade 2 Inf 1 Arm</t>
+  </si>
+  <si>
+    <t>Armour regiment</t>
+  </si>
+  <si>
+    <t>Brigade 2 Arm 1 Inf</t>
+  </si>
+  <si>
+    <t>Airmobile battalion</t>
+  </si>
+  <si>
+    <t>Rifle co</t>
+  </si>
+  <si>
+    <t>Support co</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
+  </si>
+  <si>
+    <t>L16A1</t>
+  </si>
+  <si>
+    <t>FV107 Scimitar</t>
+  </si>
+  <si>
+    <t>FV701(C) Ferret</t>
+  </si>
+  <si>
+    <t>Chieftain Mk.V</t>
+  </si>
+  <si>
+    <t>FV105 Sultan CV</t>
+  </si>
+  <si>
+    <t>FV101 Scorpion</t>
+  </si>
+  <si>
+    <t>Airmobile brigade</t>
+  </si>
+  <si>
+    <t>Airmobile btn</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Engineer Company</t>
+  </si>
+  <si>
+    <t>Aircraft attachment</t>
+  </si>
+  <si>
+    <t>Gazelle AH.1</t>
+  </si>
+  <si>
+    <t>Lynx AH.1 TOW</t>
+  </si>
+  <si>
+    <t>Puma HC.1</t>
+  </si>
+  <si>
+    <t>CH-47</t>
+  </si>
+  <si>
+    <t>FV433 Abbot</t>
+  </si>
+  <si>
+    <t>LAAD Javelin</t>
+  </si>
+  <si>
+    <t>Brigade 2 Inf 2 Arm</t>
   </si>
 </sst>
 </file>
@@ -498,7 +581,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:J17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,7 +644,7 @@
         <v>262</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="D2:L2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <f t="shared" ref="E2:L2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
         <v>59</v>
       </c>
       <c r="F2" s="3">
@@ -2154,11 +2237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2254,7 +2337,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="13">
         <v>6</v>
@@ -2471,7 +2554,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="13">
         <v>2</v>
@@ -2497,7 +2580,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
@@ -3843,4 +3926,1727 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
+    <col min="2" max="10" width="6.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8">
+        <f>SUM(D2:O2)</f>
+        <v>1141</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D17,$B3:$B17)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:J2" si="0">SUMPRODUCT(E3:E17,$B3:$B17)</f>
+        <v>314</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C17" si="1">SUM(D3:O3)</f>
+        <v>42</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="14">
+        <f>54*3</f>
+        <v>162</v>
+      </c>
+      <c r="F4" s="14">
+        <f>54*3</f>
+        <v>162</v>
+      </c>
+      <c r="G4" s="14">
+        <f>54*3</f>
+        <v>162</v>
+      </c>
+      <c r="H4" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14">
+        <f>36+18</f>
+        <v>54</v>
+      </c>
+      <c r="F5" s="14">
+        <f>36+18</f>
+        <v>54</v>
+      </c>
+      <c r="G5" s="14">
+        <f>36+18</f>
+        <v>54</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(D6:O6)</f>
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="3">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="13"/>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="13"/>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="13"/>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="13"/>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="13"/>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="13"/>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
+    <col min="2" max="12" width="6.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8">
+        <f>SUM(D2:O2)</f>
+        <v>1943</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D17,$B3:$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:K2" si="0">SUMPRODUCT(E3:E17,$B3:$B17)</f>
+        <v>680</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUMPRODUCT(L3:L31,$B3:$B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C17" si="1">SUM(D3:O3)</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="14">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14">
+        <v>78</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(D6:O6)</f>
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="14">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14">
+        <v>134</v>
+      </c>
+      <c r="F8" s="14">
+        <v>134</v>
+      </c>
+      <c r="G8">
+        <v>137</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="14">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8">
+        <f>SUM(D21:O21)</f>
+        <v>1846</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUMPRODUCT(D22:D36,$B22:$B36)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21:I21" si="2">SUMPRODUCT(E22:E36,$B22:$B36)</f>
+        <v>680</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>583</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>583</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="13">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:C24" si="3">SUM(D22:O22)</f>
+        <v>8</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="14">
+        <v>8</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="14">
+        <v>78</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="14">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <f>SUM(D25:O25)</f>
+        <v>18</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:C36" si="4">SUM(D26:O26)</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="14">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="14">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <v>137</v>
+      </c>
+      <c r="G27">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="14">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="13">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="14">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="13">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="F32">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="13">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="13">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>84</v>
+      </c>
+      <c r="G36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="97.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="8">
+        <f>SUM(D39:O39)</f>
+        <v>2753</v>
+      </c>
+      <c r="D39" s="3">
+        <f>SUMPRODUCT(D40:D51,$B40:$B51)</f>
+        <v>248</v>
+      </c>
+      <c r="E39" s="3">
+        <f>SUMPRODUCT(E40:E51,$B40:$B51)</f>
+        <v>1177</v>
+      </c>
+      <c r="F39" s="3">
+        <f>SUMPRODUCT(F40:F51,$B40:$B51)</f>
+        <v>1177</v>
+      </c>
+      <c r="G39" s="3">
+        <f>SUMPRODUCT(G40:G51,$B40:$B51)</f>
+        <v>40</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39:I39" si="5">SUMPRODUCT(H40:H51,$B40:$B51)</f>
+        <v>111</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" ref="C40:C42" si="6">SUM(D40:O40)</f>
+        <v>84</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="14">
+        <v>42</v>
+      </c>
+      <c r="F40" s="14">
+        <v>42</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="6"/>
+        <v>1286</v>
+      </c>
+      <c r="D41" s="3">
+        <v>122</v>
+      </c>
+      <c r="E41" s="14">
+        <v>582</v>
+      </c>
+      <c r="F41" s="14">
+        <v>582</v>
+      </c>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="6"/>
+        <v>358</v>
+      </c>
+      <c r="D42" s="3">
+        <v>18</v>
+      </c>
+      <c r="E42" s="14">
+        <v>170</v>
+      </c>
+      <c r="F42" s="3">
+        <v>170</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <f>SUM(D43:O43)</f>
+        <v>72</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="13">
+        <v>5</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" ref="C44:C50" si="7">SUM(D44:O44)</f>
+        <v>36</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="14">
+        <v>18</v>
+      </c>
+      <c r="F44" s="3">
+        <v>18</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="13">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="13">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="13">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="13">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" ref="C51" si="8">SUM(D51:O51)</f>
+        <v>84</v>
+      </c>
+      <c r="D51" s="3">
+        <v>66</v>
+      </c>
+      <c r="E51" s="14">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="103.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8">
+        <f>SUM(D54:O54)</f>
+        <v>2526</v>
+      </c>
+      <c r="D54" s="3">
+        <f>SUMPRODUCT(D55:D69,$B55:$B69)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ref="E54" si="9">SUMPRODUCT(E55:E69,$B55:$B69)</f>
+        <v>680</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" ref="F54" si="10">SUMPRODUCT(F55:F69,$B55:$B69)</f>
+        <v>680</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" ref="G54:H54" si="11">SUMPRODUCT(G55:G69,$B55:$B69)</f>
+        <v>583</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="11"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="13">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" ref="C55:C69" si="12">SUM(D55:O55)</f>
+        <v>16</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="14">
+        <v>8</v>
+      </c>
+      <c r="F55" s="14">
+        <v>8</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="13">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="14">
+        <v>78</v>
+      </c>
+      <c r="F56" s="14">
+        <v>78</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="13">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="14">
+        <v>8</v>
+      </c>
+      <c r="F57" s="14">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="13">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8">
+        <f>SUM(D58:O58)</f>
+        <v>22</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="13">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" ref="C59:C69" si="13">SUM(D59:O59)</f>
+        <v>48</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="14">
+        <v>24</v>
+      </c>
+      <c r="F59" s="14">
+        <v>24</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8">
+        <f t="shared" si="13"/>
+        <v>542</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="14">
+        <v>134</v>
+      </c>
+      <c r="F60" s="14">
+        <v>134</v>
+      </c>
+      <c r="G60">
+        <v>137</v>
+      </c>
+      <c r="H60">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="14">
+        <v>34</v>
+      </c>
+      <c r="F61" s="14">
+        <v>34</v>
+      </c>
+      <c r="G61">
+        <v>22</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="13">
+        <v>2</v>
+      </c>
+      <c r="C62" s="8">
+        <f t="shared" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62">
+        <v>27</v>
+      </c>
+      <c r="F62">
+        <v>27</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="13">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="14">
+        <v>9</v>
+      </c>
+      <c r="F63" s="14">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+      <c r="E64">
+        <v>54</v>
+      </c>
+      <c r="F64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="13">
+        <v>4</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+      <c r="G65">
+        <v>57</v>
+      </c>
+      <c r="H65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="13">
+        <v>6</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="13">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="13">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="13"/>
+        <v>296</v>
+      </c>
+      <c r="E69">
+        <v>64</v>
+      </c>
+      <c r="F69">
+        <v>64</v>
+      </c>
+      <c r="G69">
+        <v>84</v>
+      </c>
+      <c r="H69">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>